--- a/src/test/resources/testdata/OrangeHRMData.xlsx
+++ b/src/test/resources/testdata/OrangeHRMData.xlsx
@@ -10,15 +10,14 @@
     <sheet name="EmployeeDetails" sheetId="1" r:id="rId1"/>
     <sheet name="Locations" sheetId="2" r:id="rId2"/>
     <sheet name="LoginCredentials" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="EmployeeDetails (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="EmployeeDetailsBackup" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>FirstName</t>
   </si>
@@ -180,16 +179,36 @@
   </si>
   <si>
     <t>yMZW@aB17i</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>adnan</t>
+  </si>
+  <si>
+    <t>HadiYandim@1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,13 +231,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +554,7 @@
     <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +567,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -559,10 +590,23 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -698,18 +742,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
